--- a/file/datasvthuocnganh.xlsx
+++ b/file/datasvthuocnganh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F83A07-EF2A-4CB6-97D6-59D3280C9ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB24FA3A-DB1C-4F0D-8694-DCD969FD3F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,16 +36,16 @@
     <t>0019</t>
   </si>
   <si>
+    <t>Mã số</t>
+  </si>
+  <si>
+    <t>Mã chuyên ngành</t>
+  </si>
+  <si>
+    <t>KTPM</t>
+  </si>
+  <si>
     <t>0020</t>
-  </si>
-  <si>
-    <t>Mã số</t>
-  </si>
-  <si>
-    <t>Mã chuyên ngành</t>
-  </si>
-  <si>
-    <t>KTPM</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -385,10 +385,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -406,7 +406,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -416,20 +416,18 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
